--- a/input/ahp_template_运维风险C4.xlsx
+++ b/input/ahp_template_运维风险C4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="28">
   <si>
     <t>设备故障风险C4.1</t>
   </si>
@@ -46,34 +46,31 @@
     <t>数据备份风险C4.4</t>
   </si>
   <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>自动计算</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>自动计算</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1/4</t>
+    <t>1/6</t>
   </si>
   <si>
     <t>填写说明</t>
@@ -131,7 +128,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +139,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -622,148 +612,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,10 +762,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1117,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1180,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1197,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1229,7 +1219,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1259,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1279,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1299,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1331,7 +1321,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1361,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1401,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1433,7 +1423,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1469,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1483,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1503,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1535,7 +1525,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1568,10 +1558,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1585,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1605,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1644,77 +1634,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
